--- a/mf-intelligence/data/processed/quant/quant_Business_Cycle_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Business_Cycle_Fund_Equity_Holdings_Comparison.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Jan_2026</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov_2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Oct_2025</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INE364U01010</t>
+          <t>INE040A01034</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adani Green Energy Limited</t>
+          <t>HDFC Bank Limited</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -492,30 +492,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9.057323</v>
+        <v>9.194146</v>
       </c>
       <c r="E2" t="n">
-        <v>4.345319</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.620382</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.712004</v>
+        <v>9.194146</v>
       </c>
       <c r="H2" t="n">
-        <v>4.436941</v>
+        <v>9.194146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INE758E01017</t>
+          <t>INE202B01038</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jio Financial Services Limited</t>
+          <t>Piramal Finance Ltd</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,19 +524,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8.585172</v>
+        <v>8.702396999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>8.304379000000001</v>
+        <v>7.671751</v>
       </c>
       <c r="F3" t="n">
-        <v>8.134912</v>
+        <v>6.737916</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2807929999999992</v>
+        <v>1.030645999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4502600000000001</v>
+        <v>1.964480999999999</v>
       </c>
     </row>
     <row r="4">
@@ -556,30 +556,30 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>8.288983</v>
+      </c>
+      <c r="E4" t="n">
         <v>8.237802</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>7.443303</v>
       </c>
-      <c r="F4" t="n">
-        <v>7.530104</v>
-      </c>
       <c r="G4" t="n">
-        <v>0.7944990000000001</v>
+        <v>0.0511809999999997</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7076980000000006</v>
+        <v>0.8456799999999998</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INE202B01038</t>
+          <t>INE364U01010</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Piramal Finance Ltd</t>
+          <t>Adani Green Energy Limited</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,30 +588,30 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7.671751</v>
+        <v>8.12912</v>
       </c>
       <c r="E5" t="n">
-        <v>6.737916</v>
+        <v>9.057323</v>
       </c>
       <c r="F5" t="n">
-        <v>4.781866</v>
+        <v>4.345319</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9338350000000002</v>
+        <v>-0.9282029999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2.889885</v>
+        <v>3.783801</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INE795G01014</t>
+          <t>INE406A01037</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HDFC Life Insurance Co Ltd</t>
+          <t>Aurobindo Pharma Limited</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,30 +620,30 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6.707038</v>
+        <v>7.148391</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>6.550493</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>6.328911</v>
       </c>
       <c r="G6" t="n">
-        <v>6.707038</v>
+        <v>0.5978979999999998</v>
       </c>
       <c r="H6" t="n">
-        <v>6.707038</v>
+        <v>0.8194800000000004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INE406A01037</t>
+          <t>INE795G01014</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aurobindo Pharma Limited</t>
+          <t>HDFC Life Insurance Co Ltd</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,30 +652,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6.550493</v>
+        <v>6.989301</v>
       </c>
       <c r="E7" t="n">
-        <v>6.328911</v>
+        <v>6.707038</v>
       </c>
       <c r="F7" t="n">
-        <v>5.744758</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2215820000000006</v>
+        <v>0.2822630000000004</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8057350000000003</v>
+        <v>6.989301</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INE768C01028</t>
+          <t>INE090A01021</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Zydus Wellness Ltd</t>
+          <t>ICICI Bank Limited</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,30 +684,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3.394735</v>
+        <v>5.344555</v>
       </c>
       <c r="E8" t="n">
-        <v>2.995026</v>
+        <v>2.055998</v>
       </c>
       <c r="F8" t="n">
-        <v>3.242107</v>
+        <v>1.981163</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3997089999999996</v>
+        <v>3.288557</v>
       </c>
       <c r="H8" t="n">
-        <v>0.152628</v>
+        <v>3.363392</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INE423A01024</t>
+          <t>INE768C01028</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited</t>
+          <t>Zydus Wellness Ltd</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -716,30 +716,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3.368582</v>
+        <v>3.578534</v>
       </c>
       <c r="E9" t="n">
-        <v>0.895957</v>
+        <v>3.394735</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9530960000000001</v>
+        <v>2.995026</v>
       </c>
       <c r="G9" t="n">
-        <v>2.472625</v>
+        <v>0.183799</v>
       </c>
       <c r="H9" t="n">
-        <v>2.415486</v>
+        <v>0.5835079999999997</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INE467B01029</t>
+          <t>INE423A01024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Limited</t>
+          <t>Adani Enterprises Limited</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -748,30 +748,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3.078667</v>
+        <v>3.248288</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>3.368582</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.895957</v>
       </c>
       <c r="G10" t="n">
-        <v>3.078667</v>
+        <v>-0.1202939999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>3.078667</v>
+        <v>2.352331</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INE127D01025</t>
+          <t>INE016A01026</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HDFC Asset Management Company Ltd</t>
+          <t>Dabur India Limited</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.884563</v>
+        <v>2.978884</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -789,21 +789,21 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.884563</v>
+        <v>2.978884</v>
       </c>
       <c r="H11" t="n">
-        <v>2.884563</v>
+        <v>2.978884</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE271C01023</t>
+          <t>INE127D01025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DLF Limited</t>
+          <t>HDFC Asset Management Company Ltd</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -812,30 +812,30 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.841351</v>
+        <v>2.902886</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2.884563</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.841351</v>
+        <v>0.01832300000000009</v>
       </c>
       <c r="H12" t="n">
-        <v>2.841351</v>
+        <v>2.902886</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE094A01015</t>
+          <t>INE650L01011</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hindustan Petroleum Corporation Ltd</t>
+          <t>BROOKS Laboratories Limited</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -844,30 +844,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2.471008</v>
+        <v>1.824076</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2.221796</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.640019</v>
       </c>
       <c r="G13" t="n">
-        <v>2.471008</v>
+        <v>-0.3977199999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>2.471008</v>
+        <v>-0.8159430000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE650L01011</t>
+          <t>INE331A01037</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BROOKS Laboratories Limited</t>
+          <t>The Ramco Cements Limited</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -876,30 +876,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2.221796</v>
+        <v>1.15084</v>
       </c>
       <c r="E14" t="n">
-        <v>2.640019</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2.801565</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.4182230000000002</v>
+        <v>1.15084</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.5797690000000002</v>
+        <v>1.15084</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE090A01021</t>
+          <t>INE259A01022</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ICICI Bank Limited</t>
+          <t>Colgate-Palmolive (India) Ltd</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -908,30 +908,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2.055998</v>
+        <v>0.966873</v>
       </c>
       <c r="E15" t="n">
-        <v>1.981163</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07483500000000021</v>
+        <v>0.966873</v>
       </c>
       <c r="H15" t="n">
-        <v>2.055998</v>
+        <v>0.966873</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE424H01027</t>
+          <t>INE522F01014</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SUN TV Network Limited</t>
+          <t>Coal India Ltd</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -940,30 +940,30 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.21769</v>
       </c>
       <c r="E16" t="n">
-        <v>3.834342</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>3.790241</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.834342</v>
+        <v>0.21769</v>
       </c>
       <c r="H16" t="n">
-        <v>-3.790241</v>
+        <v>0.21769</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE917I01010</t>
+          <t>INE548A01028</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bajaj Auto Limited</t>
+          <t>HFCL Limited</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -978,24 +978,24 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.540286</v>
+        <v>6.160869</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.540286</v>
+        <v>-6.160869</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE548A01028</t>
+          <t>INE467B01029</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HFCL Limited</t>
+          <t>Tata Consultancy Services Limited</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1007,27 +1007,27 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>6.160869</v>
+        <v>3.078667</v>
       </c>
       <c r="F18" t="n">
-        <v>6.310045</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.160869</v>
+        <v>-3.078667</v>
       </c>
       <c r="H18" t="n">
-        <v>-6.310045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE002A01018</t>
+          <t>INE758E01017</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Reliance Industries Limited</t>
+          <t>Jio Financial Services Limited</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1039,27 +1039,27 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>2.777088</v>
+        <v>8.585172</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>8.304379000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.777088</v>
+        <v>-8.585172</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-8.304379000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE423A20016</t>
+          <t>INE002A01018</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited Rights</t>
+          <t>Reliance Industries Limited</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1071,27 +1071,27 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.020857</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2.777088</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.020857</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-2.777088</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INE03Q201024</t>
+          <t>INE424H01027</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Alivus Life Sciences</t>
+          <t>SUN TV Network Limited</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1106,24 +1106,24 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>3.896797</v>
+        <v>3.834342</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-3.896797</v>
+        <v>-3.834342</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INE245A01021</t>
+          <t>INE423A20016</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tata Power Company Limited</t>
+          <t>Adani Enterprises Limited Rights</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1135,27 +1135,27 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>3.049091</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>3.094124</v>
+        <v>0.020857</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.049091</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-3.094124</v>
+        <v>-0.020857</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INE242A01010</t>
+          <t>INE271C01023</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Indian Oil Corp Ltd</t>
+          <t>DLF Limited</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1167,27 +1167,27 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>2.841351</v>
       </c>
       <c r="F23" t="n">
-        <v>3.637509</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-2.841351</v>
       </c>
       <c r="H23" t="n">
-        <v>-3.637509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INE212I01016</t>
+          <t>INE245A01021</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S. P. Apparels Limited</t>
+          <t>Tata Power Company Limited</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1199,27 +1199,27 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>5.872413</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>5.423769</v>
+        <v>3.049091</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.872413</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-5.423769</v>
+        <v>-3.049091</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INE177F01017</t>
+          <t>INE212I01016</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Kovai Medical Center &amp; Hospital Ltd.</t>
+          <t>S. P. Apparels Limited</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1231,27 +1231,27 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.125405</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.540674</v>
+        <v>5.872413</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.125405</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.540674</v>
+        <v>-5.872413</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INE14LE01019</t>
+          <t>INE177F01017</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Aditya Birla Lifestyle Brands Limited</t>
+          <t>Kovai Medical Center &amp; Hospital Ltd.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1263,27 +1263,27 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.153089</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.157055</v>
+        <v>0.125405</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.153089</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.157055</v>
+        <v>-0.125405</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INE0J1Y01017</t>
+          <t>INE14LE01019</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Life Insurance Corporation Of India</t>
+          <t>Aditya Birla Lifestyle Brands Limited</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1298,24 +1298,24 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>2.083305</v>
+        <v>1.153089</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>-2.083305</v>
+        <v>-1.153089</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>INE0CZ201020</t>
+          <t>INE094A01015</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ANTHEM BIOSCIENCES LIMITED</t>
+          <t>Hindustan Petroleum Corporation Ltd</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1327,16 +1327,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>2.471008</v>
       </c>
       <c r="F28" t="n">
-        <v>2.951946</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>-2.471008</v>
       </c>
       <c r="H28" t="n">
-        <v>-2.951946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1359,16 +1359,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>1.67295</v>
       </c>
-      <c r="F29" t="n">
-        <v>1.740437</v>
-      </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>-1.67295</v>
-      </c>
-      <c r="H29" t="n">
-        <v>-1.740437</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Business_Cycle_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Business_Cycle_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nov_2025</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Oct_2025</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -491,21 +496,26 @@
           <t>quant Business Cycle Fund</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>9.194146</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.194146</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>9.194146</v>
       </c>
+      <c r="I2" t="n">
+        <v>9.194146</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -523,20 +533,25 @@
           <t>quant Business Cycle Fund</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>8.702396999999999</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>7.671751</v>
       </c>
-      <c r="F3" t="n">
-        <v>6.737916</v>
-      </c>
       <c r="G3" t="n">
+        <v>4.781866</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.030645999999999</v>
       </c>
-      <c r="H3" t="n">
-        <v>1.964480999999999</v>
+      <c r="I3" t="n">
+        <v>3.920531</v>
       </c>
     </row>
     <row r="4">
@@ -555,20 +570,25 @@
           <t>quant Business Cycle Fund</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>8.288983</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>8.237802</v>
       </c>
-      <c r="F4" t="n">
-        <v>7.443303</v>
-      </c>
       <c r="G4" t="n">
+        <v>7.530104</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.0511809999999997</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.8456799999999998</v>
+      <c r="I4" t="n">
+        <v>0.7588790000000003</v>
       </c>
     </row>
     <row r="5">
@@ -587,20 +607,25 @@
           <t>quant Business Cycle Fund</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>8.12912</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>9.057323</v>
       </c>
-      <c r="F5" t="n">
-        <v>4.345319</v>
-      </c>
       <c r="G5" t="n">
+        <v>4.620382</v>
+      </c>
+      <c r="H5" t="n">
         <v>-0.9282029999999999</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.783801</v>
+      <c r="I5" t="n">
+        <v>3.508738</v>
       </c>
     </row>
     <row r="6">
@@ -619,20 +644,25 @@
           <t>quant Business Cycle Fund</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>7.148391</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>6.550493</v>
       </c>
-      <c r="F6" t="n">
-        <v>6.328911</v>
-      </c>
       <c r="G6" t="n">
+        <v>5.744758</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.5978979999999998</v>
       </c>
-      <c r="H6" t="n">
-        <v>0.8194800000000004</v>
+      <c r="I6" t="n">
+        <v>1.403633</v>
       </c>
     </row>
     <row r="7">
@@ -651,19 +681,24 @@
           <t>quant Business Cycle Fund</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>6.989301</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>6.707038</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.2822630000000004</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>6.989301</v>
       </c>
     </row>
@@ -683,20 +718,25 @@
           <t>quant Business Cycle Fund</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>5.344555</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>2.055998</v>
       </c>
-      <c r="F8" t="n">
-        <v>1.981163</v>
-      </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>3.288557</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.363392</v>
+      <c r="I8" t="n">
+        <v>5.344555</v>
       </c>
     </row>
     <row r="9">
@@ -715,20 +755,25 @@
           <t>quant Business Cycle Fund</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>3.578534</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>3.394735</v>
       </c>
-      <c r="F9" t="n">
-        <v>2.995026</v>
-      </c>
       <c r="G9" t="n">
+        <v>3.242107</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.183799</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.5835079999999997</v>
+      <c r="I9" t="n">
+        <v>0.336427</v>
       </c>
     </row>
     <row r="10">
@@ -747,20 +792,25 @@
           <t>quant Business Cycle Fund</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>3.248288</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>3.368582</v>
       </c>
-      <c r="F10" t="n">
-        <v>0.895957</v>
-      </c>
       <c r="G10" t="n">
+        <v>0.9530960000000001</v>
+      </c>
+      <c r="H10" t="n">
         <v>-0.1202939999999999</v>
       </c>
-      <c r="H10" t="n">
-        <v>2.352331</v>
+      <c r="I10" t="n">
+        <v>2.295192</v>
       </c>
     </row>
     <row r="11">
@@ -779,21 +829,26 @@
           <t>quant Business Cycle Fund</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>2.978884</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.978884</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>2.978884</v>
       </c>
+      <c r="I11" t="n">
+        <v>2.978884</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -811,19 +866,24 @@
           <t>quant Business Cycle Fund</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>2.902886</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>2.884563</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.01832300000000009</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>2.902886</v>
       </c>
     </row>
@@ -843,20 +903,25 @@
           <t>quant Business Cycle Fund</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>1.824076</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>2.221796</v>
       </c>
-      <c r="F13" t="n">
-        <v>2.640019</v>
-      </c>
       <c r="G13" t="n">
+        <v>2.801565</v>
+      </c>
+      <c r="H13" t="n">
         <v>-0.3977199999999999</v>
       </c>
-      <c r="H13" t="n">
-        <v>-0.8159430000000001</v>
+      <c r="I13" t="n">
+        <v>-0.9774890000000001</v>
       </c>
     </row>
     <row r="14">
@@ -875,21 +940,26 @@
           <t>quant Business Cycle Fund</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>1.15084</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.15084</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>1.15084</v>
       </c>
+      <c r="I14" t="n">
+        <v>1.15084</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -907,21 +977,26 @@
           <t>quant Business Cycle Fund</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>0.966873</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.966873</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0.966873</v>
       </c>
+      <c r="I15" t="n">
+        <v>0.966873</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -939,31 +1014,36 @@
           <t>quant Business Cycle Fund</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>0.21769</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.21769</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0.21769</v>
       </c>
+      <c r="I16" t="n">
+        <v>0.21769</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE548A01028</t>
+          <t>INE758E01017</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HFCL Limited</t>
+          <t>Jio Financial Services Limited</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -971,31 +1051,36 @@
           <t>quant Business Cycle Fund</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.160869</v>
+        <v>8.585172</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>8.134912</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.160869</v>
+        <v>-8.585172</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-8.134912</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE467B01029</t>
+          <t>INE424H01027</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Limited</t>
+          <t>SUN TV Network Limited</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1003,31 +1088,36 @@
           <t>quant Business Cycle Fund</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E18" t="n">
-        <v>3.078667</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.078667</v>
+        <v>3.790241</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-3.790241</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE758E01017</t>
+          <t>INE548A01028</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Jio Financial Services Limited</t>
+          <t>HFCL Limited</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1035,31 +1125,36 @@
           <t>quant Business Cycle Fund</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E19" t="n">
-        <v>8.585172</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>8.304379000000001</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-8.585172</v>
+        <v>6.310045</v>
       </c>
       <c r="H19" t="n">
-        <v>-8.304379000000001</v>
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-6.310045</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE002A01018</t>
+          <t>INE467B01029</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Reliance Industries Limited</t>
+          <t>Tata Consultancy Services Limited</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1067,31 +1162,36 @@
           <t>quant Business Cycle Fund</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2.777088</v>
+        <v>3.078667</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.777088</v>
+        <v>-3.078667</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INE424H01027</t>
+          <t>INE917I01010</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SUN TV Network Limited</t>
+          <t>Bajaj Auto Limited</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1099,31 +1199,36 @@
           <t>quant Business Cycle Fund</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>3.834342</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1.540286</v>
       </c>
       <c r="H21" t="n">
-        <v>-3.834342</v>
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-1.540286</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INE423A20016</t>
+          <t>INE271C01023</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited Rights</t>
+          <t>DLF Limited</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1131,31 +1236,36 @@
           <t>quant Business Cycle Fund</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>0</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.020857</v>
+        <v>2.841351</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.020857</v>
+        <v>-2.841351</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INE271C01023</t>
+          <t>INE03Q201024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DLF Limited</t>
+          <t>Alivus Life Sciences</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1163,20 +1273,25 @@
           <t>quant Business Cycle Fund</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E23" t="n">
-        <v>2.841351</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.841351</v>
+        <v>3.896797</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-3.896797</v>
       </c>
     </row>
     <row r="24">
@@ -1195,31 +1310,36 @@
           <t>quant Business Cycle Fund</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>3.049091</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>3.094124</v>
       </c>
       <c r="H24" t="n">
-        <v>-3.049091</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-3.094124</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INE212I01016</t>
+          <t>INE242A01010</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S. P. Apparels Limited</t>
+          <t>Indian Oil Corp Ltd</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1227,31 +1347,36 @@
           <t>quant Business Cycle Fund</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>0</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>5.872413</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.637509</v>
       </c>
       <c r="H25" t="n">
-        <v>-5.872413</v>
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-3.637509</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INE177F01017</t>
+          <t>INE212I01016</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Kovai Medical Center &amp; Hospital Ltd.</t>
+          <t>S. P. Apparels Limited</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1259,31 +1384,36 @@
           <t>quant Business Cycle Fund</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.125405</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.423769</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.125405</v>
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-5.423769</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INE14LE01019</t>
+          <t>INE177F01017</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Aditya Birla Lifestyle Brands Limited</t>
+          <t>Kovai Medical Center &amp; Hospital Ltd.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1291,31 +1421,36 @@
           <t>quant Business Cycle Fund</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1.153089</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1.540674</v>
       </c>
       <c r="H27" t="n">
-        <v>-1.153089</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-1.540674</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>INE094A01015</t>
+          <t>INE14LE01019</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Hindustan Petroleum Corporation Ltd</t>
+          <t>Aditya Birla Lifestyle Brands Limited</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1323,52 +1458,173 @@
           <t>quant Business Cycle Fund</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>0</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E28" t="n">
-        <v>2.471008</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.471008</v>
+        <v>1.157055</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-1.157055</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>INE0J1Y01017</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Life Insurance Corporation Of India</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.083305</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-2.083305</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>INE0CZ201020</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ANTHEM BIOSCIENCES LIMITED</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.951946</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-2.951946</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>INE094A01015</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Hindustan Petroleum Corporation Ltd</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.471008</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-2.471008</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>INE939A01011</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Strides Pharma Science Ltd</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>quant Business Cycle Fund</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.67295</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>-1.67295</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.740437</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-1.740437</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Business_Cycle_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Business_Cycle_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,29 +498,34 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.194146</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.194146</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>9.194146</v>
       </c>
+      <c r="J2" t="n">
+        <v>9.194146</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -530,27 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>8.702396999999999</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>7.671751</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>4.781866</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>1.030645999999999</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>3.920531</v>
       </c>
     </row>
@@ -567,27 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Auto Components</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>8.288983</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>8.237802</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>7.530104</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.0511809999999997</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.7588790000000003</v>
       </c>
     </row>
@@ -604,27 +624,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>8.12912</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>9.057323</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>4.620382</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>-0.9282029999999999</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>3.508738</v>
       </c>
     </row>
@@ -641,27 +666,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>7.148391</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>6.550493</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>5.744758</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>0.5978979999999998</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>1.403633</v>
       </c>
     </row>
@@ -678,27 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>6.989301</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>6.707038</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.2822630000000004</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>6.989301</v>
       </c>
     </row>
@@ -715,27 +750,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>5.344555</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>2.055998</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>3.288557</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>5.344555</v>
       </c>
     </row>
@@ -752,27 +792,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Food Products</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>3.578534</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>3.394735</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>3.242107</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0.183799</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.336427</v>
       </c>
     </row>
@@ -789,27 +834,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Metals &amp; Minerals Trading</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>3.248288</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>3.368582</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>0.9530960000000001</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>-0.1202939999999999</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>2.295192</v>
       </c>
     </row>
@@ -826,29 +876,34 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Personal Products</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>2.978884</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.978884</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>2.978884</v>
       </c>
+      <c r="J11" t="n">
+        <v>2.978884</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -863,27 +918,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>2.902886</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>2.884563</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0.01832300000000009</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>2.902886</v>
       </c>
     </row>
@@ -900,27 +960,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>1.824076</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>2.221796</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>2.801565</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>-0.3977199999999999</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>-0.9774890000000001</v>
       </c>
     </row>
@@ -937,29 +1002,34 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Cement &amp; Cement Products</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1.15084</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.15084</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>1.15084</v>
       </c>
+      <c r="J14" t="n">
+        <v>1.15084</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -974,29 +1044,34 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Personal Products</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.966873</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.966873</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0.966873</v>
       </c>
+      <c r="J15" t="n">
+        <v>0.966873</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1011,29 +1086,34 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Consumable Fuels</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.21769</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.21769</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0.21769</v>
       </c>
+      <c r="J16" t="n">
+        <v>0.21769</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1048,27 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>8.585172</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>8.134912</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>-8.585172</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>-8.134912</v>
       </c>
     </row>
@@ -1085,27 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>3.790241</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>-3.790241</v>
       </c>
     </row>
@@ -1122,27 +1212,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Telecom - Services</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>6.310045</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>-6.310045</v>
       </c>
     </row>
@@ -1159,27 +1254,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>3.078667</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>-3.078667</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1196,27 +1296,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Automobiles</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.540286</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>-1.540286</v>
       </c>
     </row>
@@ -1233,27 +1338,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
         <v>2.841351</v>
       </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>-2.841351</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1270,27 +1380,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>3.896797</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>-3.896797</v>
       </c>
     </row>
@@ -1307,27 +1422,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
         <v>3.094124</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>-3.094124</v>
       </c>
     </row>
@@ -1344,27 +1464,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Petroleum Products</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>3.637509</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>-3.637509</v>
       </c>
     </row>
@@ -1381,27 +1506,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Textiles &amp; Apparels</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>5.423769</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>-5.423769</v>
       </c>
     </row>
@@ -1418,27 +1548,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
         <v>1.540674</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
         <v>-1.540674</v>
       </c>
     </row>
@@ -1455,27 +1590,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>1.157055</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>-1.157055</v>
       </c>
     </row>
@@ -1492,27 +1632,32 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>2.083305</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>-2.083305</v>
       </c>
     </row>
@@ -1529,27 +1674,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>2.951946</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>-2.951946</v>
       </c>
     </row>
@@ -1566,27 +1716,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Petroleum Products</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
         <v>2.471008</v>
       </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>-2.471008</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1603,27 +1758,32 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>quant Business Cycle Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>quant Business Cycle Fund</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>1.740437</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>-1.740437</v>
       </c>
     </row>
